--- a/data/trans_orig/Q5409-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F19AA60-AB3B-4F9A-938D-029046624D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6C6C8FE-ED12-4F5A-BC39-3A0C0EBF6761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BCC23E0C-3DC7-4580-B62A-8889B64CD266}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8ED5AC0A-F75D-4A96-9ABD-B4211BB25878}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="564">
   <si>
     <t>Población según si se le escapa la orina (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,7 +101,7 @@
     <t>1,97%</t>
   </si>
   <si>
-    <t>10,09%</t>
+    <t>10,77%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,1570 +125,1564 @@
     <t>98,03%</t>
   </si>
   <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
     <t>89,91%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
   </si>
   <si>
     <t>11,6%</t>
   </si>
   <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>89,13%</t>
   </si>
   <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
   </si>
   <si>
     <t>80,4%</t>
   </si>
   <si>
-    <t>75,94%</t>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
   </si>
   <si>
     <t>4,42%</t>
@@ -1697,52 +1691,46 @@
     <t>3,71%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>10,69%</t>
   </si>
   <si>
-    <t>12,63%</t>
+    <t>12,57%</t>
   </si>
   <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
   </si>
   <si>
     <t>84,88%</t>
   </si>
   <si>
-    <t>82,28%</t>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
   </si>
   <si>
     <t>86,64%</t>
   </si>
   <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
+    <t>84,96%</t>
   </si>
 </sst>
 </file>
@@ -2154,7 +2142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FC8FB7-6C3F-4227-9B67-36A4FAFC44BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7268E4C-BFB2-49BB-8067-FD424124247D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2613,7 +2601,7 @@
         <v>201</v>
       </c>
       <c r="N10" s="7">
-        <v>197939</v>
+        <v>197940</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>50</v>
@@ -2664,7 +2652,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213825</v>
+        <v>213826</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -2711,7 +2699,7 @@
         <v>58</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -2720,13 +2708,13 @@
         <v>10039</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2729,13 @@
         <v>8854</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -2756,13 +2744,13 @@
         <v>15913</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2771,13 +2759,13 @@
         <v>24767</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,13 +2780,13 @@
         <v>133012</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>151</v>
@@ -2807,13 +2795,13 @@
         <v>160750</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>284</v>
@@ -2822,13 +2810,13 @@
         <v>293761</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,7 +2872,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2902,7 +2890,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2911,13 +2899,13 @@
         <v>2177</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2926,13 +2914,13 @@
         <v>2177</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2935,13 @@
         <v>3173</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2962,13 +2950,13 @@
         <v>9103</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -2977,13 +2965,13 @@
         <v>12276</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +2986,13 @@
         <v>101198</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H18" s="7">
         <v>129</v>
@@ -3013,13 +3001,13 @@
         <v>124570</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M18" s="7">
         <v>227</v>
@@ -3028,13 +3016,13 @@
         <v>225768</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,7 +3078,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3102,13 +3090,13 @@
         <v>1669</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -3117,13 +3105,13 @@
         <v>8935</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -3132,13 +3120,13 @@
         <v>10604</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,13 +3141,13 @@
         <v>6567</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -3168,13 +3156,13 @@
         <v>11940</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -3183,10 +3171,10 @@
         <v>18507</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>118</v>
@@ -3344,7 +3332,7 @@
         <v>135</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3347,13 @@
         <v>27753</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>37</v>
@@ -3374,13 +3362,13 @@
         <v>40255</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -3389,13 +3377,13 @@
         <v>68008</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3398,13 @@
         <v>469020</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>605</v>
@@ -3425,13 +3413,13 @@
         <v>615031</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>1091</v>
@@ -3440,13 +3428,13 @@
         <v>1084051</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,7 +3490,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3523,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29D090E-9ACF-40F1-94D3-E50C9D5B44A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744EDB36-2B9F-4DAF-825B-D8AE1D26E325}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3540,7 +3528,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3653,7 +3641,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3662,13 +3650,13 @@
         <v>2076</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3677,13 +3665,13 @@
         <v>2076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,7 +3692,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3713,13 +3701,13 @@
         <v>3476</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3728,13 +3716,13 @@
         <v>3476</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3740,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
@@ -3764,13 +3752,13 @@
         <v>19642</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -3779,13 +3767,13 @@
         <v>40840</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3841,13 @@
         <v>2125</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -3868,13 +3856,13 @@
         <v>5329</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3883,13 +3871,13 @@
         <v>7454</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3892,13 @@
         <v>5184</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -3919,13 +3907,13 @@
         <v>17047</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -3934,13 +3922,13 @@
         <v>22231</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3943,13 @@
         <v>111041</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>114</v>
@@ -3970,13 +3958,13 @@
         <v>119216</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>212</v>
@@ -3985,13 +3973,13 @@
         <v>230257</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4047,13 @@
         <v>4126</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -4074,13 +4062,13 @@
         <v>13671</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -4089,13 +4077,13 @@
         <v>17797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4098,13 @@
         <v>16586</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -4125,13 +4113,13 @@
         <v>21542</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -4140,13 +4128,13 @@
         <v>38128</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4149,13 @@
         <v>134166</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>145</v>
@@ -4176,13 +4164,13 @@
         <v>156207</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>265</v>
@@ -4191,13 +4179,13 @@
         <v>290373</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,7 +4241,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4265,13 +4253,13 @@
         <v>1062</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4280,13 +4268,13 @@
         <v>12995</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4295,13 +4283,13 @@
         <v>14057</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4304,13 @@
         <v>9825</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -4331,13 +4319,13 @@
         <v>11801</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>143</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -4346,13 +4334,13 @@
         <v>21626</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4355,13 @@
         <v>92712</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H18" s="7">
         <v>107</v>
@@ -4382,13 +4370,13 @@
         <v>116222</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M18" s="7">
         <v>189</v>
@@ -4397,13 +4385,13 @@
         <v>208934</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,7 +4447,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4471,13 +4459,13 @@
         <v>2027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>251</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -4486,13 +4474,13 @@
         <v>12592</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -4501,13 +4489,13 @@
         <v>14619</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4510,13 @@
         <v>13493</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -4537,13 +4525,13 @@
         <v>20961</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -4552,13 +4540,13 @@
         <v>34454</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,13 +4561,13 @@
         <v>146094</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H22" s="7">
         <v>198</v>
@@ -4588,13 +4576,13 @@
         <v>210196</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M22" s="7">
         <v>333</v>
@@ -4603,13 +4591,13 @@
         <v>356290</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4665,13 @@
         <v>9340</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>91</v>
+        <v>272</v>
       </c>
       <c r="H24" s="7">
         <v>42</v>
@@ -4692,13 +4680,13 @@
         <v>46663</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M24" s="7">
         <v>51</v>
@@ -4707,13 +4695,13 @@
         <v>56003</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4716,13 @@
         <v>45087</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -4743,13 +4731,13 @@
         <v>74828</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -4758,13 +4746,13 @@
         <v>119915</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4767,13 @@
         <v>505210</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>103</v>
+        <v>288</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>582</v>
@@ -4794,13 +4782,13 @@
         <v>621484</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>1041</v>
@@ -4809,13 +4797,13 @@
         <v>1126694</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,7 +4859,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4892,7 +4880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7948C5-119A-498E-AE43-EEA772230311}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81235FEF-E8AE-42FC-A3F8-BA936B1A6929}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4909,7 +4897,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5016,13 +5004,13 @@
         <v>1638</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5037,7 +5025,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>280</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5046,13 +5034,13 @@
         <v>1638</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +5055,13 @@
         <v>1829</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -5082,13 +5070,13 @@
         <v>3866</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>309</v>
+        <v>231</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5097,13 +5085,13 @@
         <v>5695</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>312</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5106,13 @@
         <v>18221</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -5133,13 +5121,13 @@
         <v>19573</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -5148,13 +5136,13 @@
         <v>37794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,10 +5213,10 @@
         <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>55</v>
+        <v>316</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>317</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -5237,13 +5225,13 @@
         <v>3604</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -5252,13 +5240,13 @@
         <v>6261</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,13 +5261,13 @@
         <v>8154</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -5288,13 +5276,13 @@
         <v>17714</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>331</v>
+        <v>260</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -5303,13 +5291,13 @@
         <v>25868</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5312,13 @@
         <v>104236</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
@@ -5339,13 +5327,13 @@
         <v>128633</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M10" s="7">
         <v>227</v>
@@ -5354,13 +5342,13 @@
         <v>232868</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,13 +5416,13 @@
         <v>3579</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5443,13 +5431,13 @@
         <v>9441</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -5458,13 +5446,13 @@
         <v>13020</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>136</v>
+        <v>346</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5467,13 @@
         <v>12582</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -5494,13 +5482,13 @@
         <v>13279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>353</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>116</v>
+        <v>354</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -5509,13 +5497,13 @@
         <v>25862</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>355</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,10 +5518,10 @@
         <v>148780</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>360</v>
@@ -5560,13 +5548,13 @@
         <v>345222</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,7 +5610,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5634,13 +5622,13 @@
         <v>970</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -5649,13 +5637,13 @@
         <v>6027</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>370</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5664,13 +5652,13 @@
         <v>6996</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>373</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5673,13 @@
         <v>13310</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>376</v>
+        <v>165</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -5700,13 +5688,13 @@
         <v>15711</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -5715,13 +5703,13 @@
         <v>29021</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5724,13 @@
         <v>100756</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H18" s="7">
         <v>100</v>
@@ -5751,13 +5739,13 @@
         <v>120858</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M18" s="7">
         <v>200</v>
@@ -5766,13 +5754,13 @@
         <v>221614</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,7 +5816,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5846,7 +5834,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -5855,13 +5843,13 @@
         <v>15402</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -5870,13 +5858,13 @@
         <v>15402</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5879,13 @@
         <v>5170</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -5906,13 +5894,13 @@
         <v>27084</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>403</v>
+        <v>88</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M21" s="7">
         <v>27</v>
@@ -5921,13 +5909,13 @@
         <v>32254</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>406</v>
+        <v>66</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5930,13 @@
         <v>169448</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>409</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H22" s="7">
         <v>165</v>
@@ -5957,13 +5945,13 @@
         <v>200295</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="M22" s="7">
         <v>349</v>
@@ -5972,13 +5960,13 @@
         <v>369743</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>344</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,13 +6034,13 @@
         <v>8843</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -6061,13 +6049,13 @@
         <v>34474</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>144</v>
+        <v>274</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -6076,13 +6064,13 @@
         <v>43317</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>345</v>
+        <v>413</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>281</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,13 +6085,13 @@
         <v>41045</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>420</v>
+        <v>184</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>368</v>
+        <v>246</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -6112,13 +6100,13 @@
         <v>77655</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M25" s="7">
         <v>110</v>
@@ -6127,13 +6115,13 @@
         <v>118700</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6136,13 @@
         <v>541440</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H26" s="7">
         <v>563</v>
@@ -6163,13 +6151,13 @@
         <v>665802</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M26" s="7">
         <v>1135</v>
@@ -6178,13 +6166,13 @@
         <v>1207242</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>51</v>
+        <v>428</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>435</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,7 +6228,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6261,7 +6249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14FB40F-CFB4-4D5B-9554-79F90E112C9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D51C42-5948-44D5-AC54-835E110CD760}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6278,7 +6266,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6385,13 +6373,13 @@
         <v>350</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6400,13 +6388,13 @@
         <v>375</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6415,13 +6403,13 @@
         <v>725</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,13 +6424,13 @@
         <v>3006</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -6451,13 +6439,13 @@
         <v>4114</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>160</v>
+        <v>440</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -6466,13 +6454,13 @@
         <v>7121</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>448</v>
+        <v>278</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,13 +6475,13 @@
         <v>26308</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="H6" s="7">
         <v>101</v>
@@ -6502,13 +6490,13 @@
         <v>40931</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M6" s="7">
         <v>142</v>
@@ -6517,13 +6505,13 @@
         <v>67239</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>124</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,13 +6579,13 @@
         <v>3655</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>58</v>
+        <v>453</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -6606,13 +6594,13 @@
         <v>7327</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>87</v>
+        <v>456</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -6621,13 +6609,13 @@
         <v>10981</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,13 +6630,13 @@
         <v>7417</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -6657,13 +6645,13 @@
         <v>16759</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="M9" s="7">
         <v>48</v>
@@ -6672,13 +6660,13 @@
         <v>24176</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,13 +6681,13 @@
         <v>113905</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="H10" s="7">
         <v>283</v>
@@ -6708,13 +6696,13 @@
         <v>123133</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>476</v>
+        <v>405</v>
       </c>
       <c r="M10" s="7">
         <v>468</v>
@@ -6723,13 +6711,13 @@
         <v>237038</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,13 +6785,13 @@
         <v>6826</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>482</v>
+        <v>209</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -6812,13 +6800,13 @@
         <v>15547</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>348</v>
+        <v>480</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M12" s="7">
         <v>39</v>
@@ -6827,13 +6815,13 @@
         <v>22372</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>486</v>
+        <v>175</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6848,13 +6836,13 @@
         <v>11410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>490</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -6863,13 +6851,13 @@
         <v>20233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>491</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -6878,13 +6866,13 @@
         <v>31643</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>494</v>
+        <v>457</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6899,13 +6887,13 @@
         <v>155611</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>492</v>
       </c>
       <c r="H14" s="7">
         <v>381</v>
@@ -6914,13 +6902,13 @@
         <v>207116</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M14" s="7">
         <v>608</v>
@@ -6929,13 +6917,13 @@
         <v>362726</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,7 +6979,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7003,13 +6991,13 @@
         <v>2428</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>507</v>
+        <v>140</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -7018,13 +7006,13 @@
         <v>4264</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>370</v>
+        <v>135</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -7033,13 +7021,13 @@
         <v>6692</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7054,13 +7042,13 @@
         <v>16035</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -7069,13 +7057,13 @@
         <v>25765</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>510</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -7084,13 +7072,13 @@
         <v>41799</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>485</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,13 +7093,13 @@
         <v>129727</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H18" s="7">
         <v>240</v>
@@ -7120,13 +7108,13 @@
         <v>250436</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>523</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -7135,13 +7123,13 @@
         <v>380163</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>148</v>
+        <v>520</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,7 +7185,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7209,13 +7197,13 @@
         <v>5298</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -7224,13 +7212,13 @@
         <v>17814</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>530</v>
+        <v>175</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
@@ -7239,13 +7227,13 @@
         <v>23113</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>526</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7260,13 +7248,13 @@
         <v>18566</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>203</v>
+        <v>530</v>
       </c>
       <c r="H21" s="7">
         <v>71</v>
@@ -7275,13 +7263,13 @@
         <v>42733</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="M21" s="7">
         <v>99</v>
@@ -7290,13 +7278,13 @@
         <v>61299</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>266</v>
+        <v>534</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7311,13 +7299,13 @@
         <v>195687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>429</v>
+        <v>537</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H22" s="7">
         <v>427</v>
@@ -7326,13 +7314,13 @@
         <v>248361</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="M22" s="7">
         <v>717</v>
@@ -7341,13 +7329,13 @@
         <v>444048</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,13 +7403,13 @@
         <v>18557</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="H24" s="7">
         <v>78</v>
@@ -7430,13 +7418,13 @@
         <v>45327</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>60</v>
+        <v>456</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c r="M24" s="7">
         <v>109</v>
@@ -7445,13 +7433,13 @@
         <v>63884</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7466,13 +7454,13 @@
         <v>56434</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>554</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>14</v>
+        <v>552</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H25" s="7">
         <v>195</v>
@@ -7481,13 +7469,13 @@
         <v>109605</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>297</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M25" s="7">
         <v>279</v>
@@ -7496,13 +7484,13 @@
         <v>166038</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>559</v>
+        <v>399</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7517,13 +7505,13 @@
         <v>621238</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>561</v>
+        <v>28</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>477</v>
+        <v>289</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H26" s="7">
         <v>1432</v>
@@ -7532,13 +7520,13 @@
         <v>869976</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>523</v>
+        <v>561</v>
       </c>
       <c r="M26" s="7">
         <v>2343</v>
@@ -7547,13 +7535,13 @@
         <v>1491214</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,7 +7597,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5409-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6C6C8FE-ED12-4F5A-BC39-3A0C0EBF6761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19028CED-3359-410A-A7A4-FE19C9B3215C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8ED5AC0A-F75D-4A96-9ABD-B4211BB25878}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AEE0F72-8669-4AB1-8D27-533D67A1F870}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="566">
   <si>
     <t>Población según si se le escapa la orina (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>A menudo</t>
@@ -95,13 +95,13 @@
     <t>4,11%</t>
   </si>
   <si>
-    <t>20,56%</t>
+    <t>20,17%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>10,77%</t>
+    <t>9,95%</t>
   </si>
   <si>
     <t>No</t>
@@ -119,1600 +119,1606 @@
     <t>95,89%</t>
   </si>
   <si>
-    <t>79,44%</t>
+    <t>79,83%</t>
   </si>
   <si>
     <t>98,03%</t>
   </si>
   <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
     <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
   </si>
   <si>
     <t>91,01%</t>
@@ -2142,7 +2148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7268E4C-BFB2-49BB-8067-FD424124247D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6E60B9-DFFC-44CD-969B-4DD41437CA53}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2601,7 +2607,7 @@
         <v>201</v>
       </c>
       <c r="N10" s="7">
-        <v>197940</v>
+        <v>197939</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>50</v>
@@ -2652,7 +2658,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213826</v>
+        <v>213825</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -2699,7 +2705,7 @@
         <v>58</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -2708,13 +2714,13 @@
         <v>10039</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,13 +2735,13 @@
         <v>8854</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -2744,13 +2750,13 @@
         <v>15913</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2759,13 +2765,13 @@
         <v>24767</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,13 +2786,13 @@
         <v>133012</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>151</v>
@@ -2795,13 +2801,13 @@
         <v>160750</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>284</v>
@@ -2810,13 +2816,13 @@
         <v>293761</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,7 +2878,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2890,7 +2896,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2899,13 +2905,13 @@
         <v>2177</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2914,7 +2920,7 @@
         <v>2177</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
@@ -3120,13 +3126,13 @@
         <v>10604</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,10 +3165,10 @@
         <v>114</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -3171,13 +3177,13 @@
         <v>18507</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,13 +3198,13 @@
         <v>128981</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>181</v>
@@ -3207,13 +3213,13 @@
         <v>187902</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>327</v>
@@ -3222,13 +3228,13 @@
         <v>316884</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3302,13 @@
         <v>5692</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -3311,13 +3317,13 @@
         <v>21556</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -3332,7 +3338,7 @@
         <v>135</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3353,13 @@
         <v>27753</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>37</v>
@@ -3362,13 +3368,13 @@
         <v>40255</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -3377,13 +3383,13 @@
         <v>68008</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,13 +3404,13 @@
         <v>469020</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>605</v>
@@ -3413,13 +3419,13 @@
         <v>615031</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>1091</v>
@@ -3428,13 +3434,13 @@
         <v>1084051</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,7 +3496,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3511,7 +3517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744EDB36-2B9F-4DAF-825B-D8AE1D26E325}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1791FAE-C4EC-46F9-8FCE-4682D4205F41}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3528,7 +3534,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3641,7 +3647,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3650,13 +3656,13 @@
         <v>2076</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3665,13 +3671,13 @@
         <v>2076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,7 +3698,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3701,13 +3707,13 @@
         <v>3476</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3716,13 +3722,13 @@
         <v>3476</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,7 +3746,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
@@ -3752,13 +3758,13 @@
         <v>19642</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -3767,13 +3773,13 @@
         <v>40840</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3847,13 @@
         <v>2125</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -3856,13 +3862,13 @@
         <v>5329</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3871,13 +3877,13 @@
         <v>7454</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,13 +3898,13 @@
         <v>5184</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -3907,10 +3913,10 @@
         <v>17047</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>185</v>
@@ -3925,10 +3931,10 @@
         <v>186</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3949,13 @@
         <v>111041</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>114</v>
@@ -3958,13 +3964,13 @@
         <v>119216</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>212</v>
@@ -3973,13 +3979,13 @@
         <v>230257</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4053,13 @@
         <v>4126</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -4062,13 +4068,13 @@
         <v>13671</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -4080,7 +4086,7 @@
         <v>203</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>204</v>
@@ -4241,7 +4247,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4289,7 +4295,7 @@
         <v>229</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,7 +4310,7 @@
         <v>9825</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>231</v>
@@ -4322,10 +4328,10 @@
         <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -4334,13 +4340,13 @@
         <v>21626</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,13 +4361,13 @@
         <v>92712</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H18" s="7">
         <v>107</v>
@@ -4370,13 +4376,13 @@
         <v>116222</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M18" s="7">
         <v>189</v>
@@ -4385,13 +4391,13 @@
         <v>208934</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4465,13 @@
         <v>2027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>249</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -4474,13 +4480,13 @@
         <v>12592</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -4489,13 +4495,13 @@
         <v>14619</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4516,13 @@
         <v>13493</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -4525,13 +4531,13 @@
         <v>20961</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -4540,10 +4546,10 @@
         <v>34454</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>260</v>
@@ -4698,10 +4704,10 @@
         <v>276</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>278</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4722,13 @@
         <v>45087</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -4731,13 +4737,13 @@
         <v>74828</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -4746,13 +4752,13 @@
         <v>119915</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +4773,13 @@
         <v>505210</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H26" s="7">
         <v>582</v>
@@ -4782,13 +4788,13 @@
         <v>621484</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M26" s="7">
         <v>1041</v>
@@ -4797,13 +4803,13 @@
         <v>1126694</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,7 +4865,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4880,7 +4886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81235FEF-E8AE-42FC-A3F8-BA936B1A6929}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D116CB-930F-46D0-B29A-421E99BBCAB1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4897,7 +4903,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5004,13 +5010,13 @@
         <v>1638</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5025,7 +5031,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>109</v>
+        <v>297</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5034,13 +5040,13 @@
         <v>1638</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,13 +5061,13 @@
         <v>1829</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -5070,13 +5076,13 @@
         <v>3866</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5085,13 +5091,13 @@
         <v>5695</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,13 +5112,13 @@
         <v>18221</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -5121,13 +5127,13 @@
         <v>19573</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -5136,13 +5142,13 @@
         <v>37794</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,10 +5219,10 @@
         <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -5225,13 +5231,13 @@
         <v>3604</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -5240,13 +5246,13 @@
         <v>6261</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,13 +5267,13 @@
         <v>8154</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -5276,7 +5282,7 @@
         <v>17714</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>260</v>
+        <v>326</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>327</v>
@@ -5339,7 +5345,7 @@
         <v>227</v>
       </c>
       <c r="N10" s="7">
-        <v>232868</v>
+        <v>232869</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>338</v>
@@ -5390,7 +5396,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264997</v>
+        <v>264998</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -5419,10 +5425,10 @@
         <v>341</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5431,10 +5437,10 @@
         <v>9441</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>345</v>
@@ -5470,10 +5476,10 @@
         <v>349</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -5482,13 +5488,13 @@
         <v>13279</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -5497,13 +5503,13 @@
         <v>25862</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,13 +5524,13 @@
         <v>148780</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H14" s="7">
         <v>164</v>
@@ -5533,13 +5539,13 @@
         <v>196442</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M14" s="7">
         <v>321</v>
@@ -5548,13 +5554,13 @@
         <v>345222</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>244</v>
+        <v>362</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,7 +5616,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5622,13 +5628,13 @@
         <v>970</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -5637,13 +5643,13 @@
         <v>6027</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5655,10 +5661,10 @@
         <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,7 +5685,7 @@
         <v>372</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>165</v>
+        <v>373</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -5688,13 +5694,13 @@
         <v>15711</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -5703,13 +5709,13 @@
         <v>29021</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5730,13 @@
         <v>100756</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="H18" s="7">
         <v>100</v>
@@ -5760,7 +5766,7 @@
         <v>386</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>387</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,7 +5840,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -5843,13 +5849,13 @@
         <v>15402</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -5858,13 +5864,13 @@
         <v>15402</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5885,13 @@
         <v>5170</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -5894,10 +5900,10 @@
         <v>27084</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>398</v>
@@ -5912,10 +5918,10 @@
         <v>399</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>66</v>
+        <v>400</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>400</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,10 +5939,10 @@
         <v>401</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>402</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H22" s="7">
         <v>165</v>
@@ -5945,13 +5951,13 @@
         <v>200295</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M22" s="7">
         <v>349</v>
@@ -5960,13 +5966,13 @@
         <v>369743</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>407</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,10 +6043,10 @@
         <v>408</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -6049,13 +6055,13 @@
         <v>34474</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>411</v>
+        <v>200</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -6064,13 +6070,13 @@
         <v>43317</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,10 +6091,10 @@
         <v>41045</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>184</v>
+        <v>413</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>246</v>
+        <v>414</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>415</v>
@@ -6172,7 +6178,7 @@
         <v>429</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>266</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,7 +6234,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -6249,7 +6255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D51C42-5948-44D5-AC54-835E110CD760}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D8CDD4-B697-4D62-9044-E6BF33D46679}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6266,7 +6272,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6373,13 +6379,13 @@
         <v>350</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6388,13 +6394,13 @@
         <v>375</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6403,13 +6409,13 @@
         <v>725</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6424,13 +6430,13 @@
         <v>3006</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -6439,10 +6445,10 @@
         <v>4114</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>440</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>441</v>
@@ -6454,13 +6460,13 @@
         <v>7121</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>278</v>
+        <v>442</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,13 +6481,13 @@
         <v>26308</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H6" s="7">
         <v>101</v>
@@ -6490,13 +6496,13 @@
         <v>40931</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>448</v>
+        <v>263</v>
       </c>
       <c r="M6" s="7">
         <v>142</v>
@@ -6579,13 +6585,13 @@
         <v>3655</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -6594,13 +6600,13 @@
         <v>7327</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -6609,13 +6615,13 @@
         <v>10981</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6630,13 +6636,13 @@
         <v>7417</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>462</v>
+        <v>64</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -6645,13 +6651,13 @@
         <v>16759</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M9" s="7">
         <v>48</v>
@@ -6660,13 +6666,13 @@
         <v>24176</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6681,13 +6687,13 @@
         <v>113905</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H10" s="7">
         <v>283</v>
@@ -6696,13 +6702,13 @@
         <v>123133</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="M10" s="7">
         <v>468</v>
@@ -6711,13 +6717,13 @@
         <v>237038</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6785,13 +6791,13 @@
         <v>6826</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>209</v>
+        <v>397</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -6800,13 +6806,13 @@
         <v>15547</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="M12" s="7">
         <v>39</v>
@@ -6815,13 +6821,13 @@
         <v>22372</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6836,13 +6842,13 @@
         <v>11410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>485</v>
+        <v>249</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>483</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -6851,13 +6857,13 @@
         <v>20233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>248</v>
+        <v>484</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -6866,13 +6872,13 @@
         <v>31643</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,13 +6893,13 @@
         <v>155611</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="H14" s="7">
         <v>381</v>
@@ -6902,13 +6908,13 @@
         <v>207116</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="M14" s="7">
         <v>608</v>
@@ -6917,13 +6923,13 @@
         <v>362726</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,7 +6985,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6991,13 +6997,13 @@
         <v>2428</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -7006,13 +7012,13 @@
         <v>4264</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>135</v>
+        <v>501</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -7021,7 +7027,7 @@
         <v>6692</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>503</v>
+        <v>135</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>504</v>
@@ -7075,7 +7081,7 @@
         <v>512</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>485</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>513</v>
@@ -7108,13 +7114,13 @@
         <v>250436</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>517</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -7123,13 +7129,13 @@
         <v>380163</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,13 +7203,13 @@
         <v>5298</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -7212,13 +7218,13 @@
         <v>17814</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
@@ -7227,13 +7233,13 @@
         <v>23113</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,13 +7254,13 @@
         <v>18566</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H21" s="7">
         <v>71</v>
@@ -7263,13 +7269,13 @@
         <v>42733</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M21" s="7">
         <v>99</v>
@@ -7278,13 +7284,13 @@
         <v>61299</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7299,13 +7305,13 @@
         <v>195687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H22" s="7">
         <v>427</v>
@@ -7314,13 +7320,13 @@
         <v>248361</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M22" s="7">
         <v>717</v>
@@ -7329,13 +7335,13 @@
         <v>444048</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,10 +7409,10 @@
         <v>18557</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>546</v>
+        <v>347</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>547</v>
@@ -7421,7 +7427,7 @@
         <v>548</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>456</v>
+        <v>115</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>228</v>
@@ -7454,10 +7460,10 @@
         <v>56434</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>141</v>
+        <v>552</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>552</v>
+        <v>40</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>553</v>
@@ -7472,7 +7478,7 @@
         <v>554</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>555</v>
@@ -7505,13 +7511,13 @@
         <v>621238</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>28</v>
+        <v>558</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>559</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H26" s="7">
         <v>1432</v>
@@ -7520,13 +7526,13 @@
         <v>869976</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M26" s="7">
         <v>2343</v>
@@ -7535,13 +7541,13 @@
         <v>1491214</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7597,7 +7603,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5409-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19028CED-3359-410A-A7A4-FE19C9B3215C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A3CFA9F-B8BC-4537-81C4-75CBC2BF3660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AEE0F72-8669-4AB1-8D27-533D67A1F870}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{57B0B87A-FCBD-47F3-A3D4-C49D4DAD2AB5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="568">
   <si>
     <t>Población según si se le escapa la orina (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -95,13 +95,13 @@
     <t>4,11%</t>
   </si>
   <si>
-    <t>20,17%</t>
+    <t>20,56%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>9,95%</t>
+    <t>10,09%</t>
   </si>
   <si>
     <t>No</t>
@@ -119,13 +119,13 @@
     <t>95,89%</t>
   </si>
   <si>
-    <t>79,83%</t>
+    <t>79,44%</t>
   </si>
   <si>
     <t>98,03%</t>
   </si>
   <si>
-    <t>90,05%</t>
+    <t>89,91%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -134,1555 +134,1561 @@
     <t>2,02%</t>
   </si>
   <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
   </si>
   <si>
     <t>3,12%</t>
   </si>
   <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>4,42%</t>
@@ -1691,52 +1697,52 @@
     <t>3,71%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>9,81%</t>
+    <t>9,93%</t>
   </si>
   <si>
     <t>10,69%</t>
   </si>
   <si>
-    <t>12,57%</t>
+    <t>12,63%</t>
   </si>
   <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>11,0%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
   </si>
   <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
+    <t>90,98%</t>
   </si>
   <si>
     <t>84,88%</t>
   </si>
   <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>82,28%</t>
   </si>
   <si>
     <t>86,64%</t>
   </si>
   <si>
-    <t>84,96%</t>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
   </si>
 </sst>
 </file>
@@ -2148,7 +2154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6E60B9-DFFC-44CD-969B-4DD41437CA53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D7D644-FEE5-475C-9895-0AFE9678CBC6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2920,13 +2926,13 @@
         <v>2177</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2947,13 @@
         <v>3173</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2956,13 +2962,13 @@
         <v>9103</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -2971,13 +2977,13 @@
         <v>12276</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +2998,13 @@
         <v>101198</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H18" s="7">
         <v>129</v>
@@ -3007,13 +3013,13 @@
         <v>124570</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M18" s="7">
         <v>227</v>
@@ -3022,13 +3028,13 @@
         <v>225768</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,7 +3090,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3096,13 +3102,13 @@
         <v>1669</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -3111,13 +3117,13 @@
         <v>8935</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -3129,10 +3135,10 @@
         <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3153,13 @@
         <v>6567</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -3162,10 +3168,10 @@
         <v>11940</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>116</v>
@@ -3180,10 +3186,10 @@
         <v>117</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3204,13 @@
         <v>128981</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>181</v>
@@ -3213,13 +3219,13 @@
         <v>187902</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>327</v>
@@ -3228,13 +3234,13 @@
         <v>316884</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3308,13 @@
         <v>5692</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -3317,13 +3323,13 @@
         <v>21556</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -3517,7 +3523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1791FAE-C4EC-46F9-8FCE-4682D4205F41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD3493B-3D80-4ACA-B1C7-8AF692D17295}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3764,7 +3770,7 @@
         <v>170</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -3773,13 +3779,13 @@
         <v>40840</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3853,13 @@
         <v>2125</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -3862,13 +3868,13 @@
         <v>5329</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3877,13 +3883,13 @@
         <v>7454</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,10 +3922,10 @@
         <v>184</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -3928,13 +3934,13 @@
         <v>22231</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3955,13 @@
         <v>111041</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>114</v>
@@ -3964,13 +3970,13 @@
         <v>119216</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>212</v>
@@ -3979,13 +3985,13 @@
         <v>230257</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4059,13 @@
         <v>4126</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -4068,13 +4074,13 @@
         <v>13671</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>202</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -4083,13 +4089,13 @@
         <v>17797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>90</v>
+        <v>204</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4110,13 @@
         <v>16586</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -4119,13 +4125,13 @@
         <v>21542</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -4134,13 +4140,13 @@
         <v>38128</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4161,13 @@
         <v>134166</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>145</v>
@@ -4170,13 +4176,13 @@
         <v>156207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>265</v>
@@ -4185,13 +4191,13 @@
         <v>290373</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4265,13 @@
         <v>1062</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4274,13 +4280,13 @@
         <v>12995</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4289,13 +4295,13 @@
         <v>14057</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4316,13 @@
         <v>9825</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -4325,13 +4331,13 @@
         <v>11801</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -4340,13 +4346,13 @@
         <v>21626</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4367,13 @@
         <v>92712</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H18" s="7">
         <v>107</v>
@@ -4376,13 +4382,13 @@
         <v>116222</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M18" s="7">
         <v>189</v>
@@ -4391,13 +4397,13 @@
         <v>208934</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,7 +4459,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4465,13 +4471,13 @@
         <v>2027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -4480,13 +4486,13 @@
         <v>12592</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>35</v>
+        <v>252</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -4495,13 +4501,13 @@
         <v>14619</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>33</v>
+        <v>256</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4522,13 @@
         <v>13493</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>161</v>
+        <v>260</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -4531,13 +4537,13 @@
         <v>20961</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -4546,13 +4552,13 @@
         <v>34454</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4573,13 @@
         <v>146094</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>198</v>
@@ -4582,13 +4588,13 @@
         <v>210196</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>333</v>
@@ -4597,13 +4603,13 @@
         <v>356290</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4677,13 @@
         <v>9340</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>272</v>
+        <v>91</v>
       </c>
       <c r="H24" s="7">
         <v>42</v>
@@ -4686,13 +4692,13 @@
         <v>46663</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M24" s="7">
         <v>51</v>
@@ -4701,13 +4707,13 @@
         <v>56003</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>132</v>
+        <v>282</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>137</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4728,13 @@
         <v>45087</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>180</v>
+        <v>285</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -4737,13 +4743,13 @@
         <v>74828</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -4752,13 +4758,13 @@
         <v>119915</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4779,13 @@
         <v>505210</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>285</v>
+        <v>103</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>582</v>
@@ -4788,13 +4794,13 @@
         <v>621484</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>1041</v>
@@ -4803,13 +4809,13 @@
         <v>1126694</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,7 +4892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D116CB-930F-46D0-B29A-421E99BBCAB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844C8BEF-F61D-4F6B-9CD2-898ABC7667AF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4903,7 +4909,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5010,13 +5016,13 @@
         <v>1638</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5031,7 +5037,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5040,13 +5046,13 @@
         <v>1638</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,13 +5067,13 @@
         <v>1829</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -5076,13 +5082,13 @@
         <v>3866</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>309</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5091,13 +5097,13 @@
         <v>5695</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,13 +5118,13 @@
         <v>18221</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -5127,13 +5133,13 @@
         <v>19573</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -5142,13 +5148,13 @@
         <v>37794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,10 +5225,10 @@
         <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>55</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -5231,13 +5237,13 @@
         <v>3604</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -5246,13 +5252,13 @@
         <v>6261</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,13 +5273,13 @@
         <v>8154</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -5282,13 +5288,13 @@
         <v>17714</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -5297,13 +5303,13 @@
         <v>25868</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,13 +5324,13 @@
         <v>104236</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
@@ -5333,28 +5339,28 @@
         <v>128633</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>227</v>
       </c>
       <c r="N10" s="7">
-        <v>232869</v>
+        <v>232868</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,7 +5402,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264998</v>
+        <v>264997</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -5422,13 +5428,13 @@
         <v>3579</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>34</v>
+        <v>346</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5437,13 +5443,13 @@
         <v>9441</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -5452,13 +5458,13 @@
         <v>13020</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>346</v>
+        <v>136</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,13 +5479,13 @@
         <v>12582</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>354</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -5488,13 +5494,13 @@
         <v>13279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>352</v>
+        <v>116</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -5503,13 +5509,13 @@
         <v>25862</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>353</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,13 +5530,13 @@
         <v>148780</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H14" s="7">
         <v>164</v>
@@ -5539,13 +5545,13 @@
         <v>196442</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M14" s="7">
         <v>321</v>
@@ -5554,13 +5560,13 @@
         <v>345222</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5634,13 @@
         <v>970</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -5643,13 +5649,13 @@
         <v>6027</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5658,13 +5664,13 @@
         <v>6996</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,13 +5685,13 @@
         <v>13310</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -5694,13 +5700,13 @@
         <v>15711</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -5709,13 +5715,13 @@
         <v>29021</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,13 +5736,13 @@
         <v>100756</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="H18" s="7">
         <v>100</v>
@@ -5745,13 +5751,13 @@
         <v>120858</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M18" s="7">
         <v>200</v>
@@ -5760,13 +5766,13 @@
         <v>221614</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,7 +5828,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5840,7 +5846,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -5849,13 +5855,13 @@
         <v>15402</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -5864,13 +5870,13 @@
         <v>15402</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>33</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,13 +5891,13 @@
         <v>5170</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -5900,13 +5906,13 @@
         <v>27084</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="M21" s="7">
         <v>27</v>
@@ -5915,13 +5921,13 @@
         <v>32254</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>284</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,13 +5942,13 @@
         <v>169448</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
         <v>165</v>
@@ -5951,13 +5957,13 @@
         <v>200295</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
         <v>349</v>
@@ -5966,13 +5972,13 @@
         <v>369743</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,13 +6046,13 @@
         <v>8843</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>315</v>
+        <v>416</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -6055,13 +6061,13 @@
         <v>34474</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>200</v>
+        <v>398</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -6070,13 +6076,13 @@
         <v>43317</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>411</v>
+        <v>345</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>412</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,13 +6097,13 @@
         <v>41045</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -6106,13 +6112,13 @@
         <v>77655</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="M25" s="7">
         <v>110</v>
@@ -6121,13 +6127,13 @@
         <v>118700</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,13 +6148,13 @@
         <v>541440</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="H26" s="7">
         <v>563</v>
@@ -6157,13 +6163,13 @@
         <v>665802</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="M26" s="7">
         <v>1135</v>
@@ -6172,13 +6178,13 @@
         <v>1207242</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>428</v>
+        <v>51</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,7 +6261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D8CDD4-B697-4D62-9044-E6BF33D46679}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BD526D-D0B6-4FBA-B33F-17405495F5D9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6272,7 +6278,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6379,13 +6385,13 @@
         <v>350</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6394,13 +6400,13 @@
         <v>375</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6409,13 +6415,13 @@
         <v>725</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,13 +6436,13 @@
         <v>3006</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -6445,13 +6451,13 @@
         <v>4114</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>354</v>
+        <v>160</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -6460,13 +6466,13 @@
         <v>7121</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,13 +6487,13 @@
         <v>26308</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="H6" s="7">
         <v>101</v>
@@ -6496,13 +6502,13 @@
         <v>40931</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>447</v>
+        <v>391</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>263</v>
+        <v>454</v>
       </c>
       <c r="M6" s="7">
         <v>142</v>
@@ -6511,13 +6517,13 @@
         <v>67239</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>451</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6591,13 @@
         <v>3655</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>457</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>452</v>
+        <v>58</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -6600,13 +6606,13 @@
         <v>7327</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -6615,13 +6621,13 @@
         <v>10981</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,13 +6642,13 @@
         <v>7417</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>64</v>
+        <v>442</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -6651,13 +6657,13 @@
         <v>16759</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>158</v>
+        <v>466</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="M9" s="7">
         <v>48</v>
@@ -6666,13 +6672,13 @@
         <v>24176</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,13 +6693,13 @@
         <v>113905</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="H10" s="7">
         <v>283</v>
@@ -6702,13 +6708,13 @@
         <v>123133</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="M10" s="7">
         <v>468</v>
@@ -6717,13 +6723,13 @@
         <v>237038</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,13 +6797,13 @@
         <v>6826</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>397</v>
+        <v>482</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -6806,13 +6812,13 @@
         <v>15547</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>478</v>
+        <v>348</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="M12" s="7">
         <v>39</v>
@@ -6821,13 +6827,13 @@
         <v>22372</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>176</v>
+        <v>486</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6842,13 +6848,13 @@
         <v>11410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>249</v>
+        <v>489</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -6857,13 +6863,13 @@
         <v>20233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -6872,13 +6878,13 @@
         <v>31643</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,13 +6899,13 @@
         <v>155611</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
         <v>381</v>
@@ -6908,13 +6914,13 @@
         <v>207116</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="M14" s="7">
         <v>608</v>
@@ -6923,13 +6929,13 @@
         <v>362726</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +7003,13 @@
         <v>2428</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -7012,13 +7018,13 @@
         <v>4264</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>501</v>
+        <v>370</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -7027,13 +7033,13 @@
         <v>6692</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>135</v>
+        <v>510</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,13 +7054,13 @@
         <v>16035</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -7063,13 +7069,13 @@
         <v>25765</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>510</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -7078,13 +7084,13 @@
         <v>41799</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,13 +7105,13 @@
         <v>129727</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H18" s="7">
         <v>240</v>
@@ -7114,13 +7120,13 @@
         <v>250436</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -7129,13 +7135,13 @@
         <v>380163</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>521</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,7 +7197,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7203,13 +7209,13 @@
         <v>5298</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -7221,10 +7227,10 @@
         <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>176</v>
+        <v>530</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
@@ -7233,13 +7239,13 @@
         <v>23113</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>527</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>528</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,13 +7260,13 @@
         <v>18566</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>531</v>
+        <v>203</v>
       </c>
       <c r="H21" s="7">
         <v>71</v>
@@ -7269,13 +7275,13 @@
         <v>42733</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M21" s="7">
         <v>99</v>
@@ -7284,13 +7290,13 @@
         <v>61299</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>535</v>
+        <v>266</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7305,13 +7311,13 @@
         <v>195687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>538</v>
+        <v>429</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H22" s="7">
         <v>427</v>
@@ -7320,13 +7326,13 @@
         <v>248361</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="M22" s="7">
         <v>717</v>
@@ -7409,13 +7415,13 @@
         <v>18557</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>457</v>
+        <v>547</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>347</v>
+        <v>548</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H24" s="7">
         <v>78</v>
@@ -7424,13 +7430,13 @@
         <v>45327</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="M24" s="7">
         <v>109</v>
@@ -7439,13 +7445,13 @@
         <v>63884</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,13 +7466,13 @@
         <v>56434</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H25" s="7">
         <v>195</v>
@@ -7475,13 +7481,13 @@
         <v>109605</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M25" s="7">
         <v>279</v>
@@ -7490,13 +7496,13 @@
         <v>166038</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>399</v>
+        <v>559</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7511,13 +7517,13 @@
         <v>621238</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>559</v>
+        <v>477</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H26" s="7">
         <v>1432</v>
@@ -7526,13 +7532,13 @@
         <v>869976</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>563</v>
+        <v>523</v>
       </c>
       <c r="M26" s="7">
         <v>2343</v>
@@ -7541,13 +7547,13 @@
         <v>1491214</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>538</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
